--- a/Data/Extractive industry.xlsx
+++ b/Data/Extractive industry.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15255" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25260" windowHeight="12800"/>
   </bookViews>
   <sheets>
     <sheet name="extractive industry" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -137,11 +150,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,16 +279,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -361,13 +374,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,14 +423,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -439,14 +457,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -473,9 +492,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -648,22 +668,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="22" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="15" width="6.5" customWidth="1"/>
+    <col min="16" max="23" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -672,79 +694,82 @@
         <v>1990</v>
       </c>
       <c r="D1" s="4">
+        <v>1991</v>
+      </c>
+      <c r="E1" s="4">
         <v>1992</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F1" s="4">
         <v>1993</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>1994</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H1" s="4">
         <v>1995</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="4">
         <v>1996</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J1" s="4">
         <v>1997</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="4">
         <v>1998</v>
       </c>
-      <c r="K1" s="4">
+      <c r="L1" s="4">
         <v>1999</v>
       </c>
-      <c r="L1" s="4">
+      <c r="M1" s="4">
         <v>2000</v>
       </c>
-      <c r="M1" s="4">
+      <c r="N1" s="4">
         <v>2001</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>2002</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <v>2003</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <v>2004</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="R1" s="5">
         <v>2005</v>
       </c>
-      <c r="R1" s="5">
+      <c r="S1" s="5">
         <v>2006</v>
       </c>
-      <c r="S1" s="5">
+      <c r="T1" s="5">
         <v>2007</v>
       </c>
-      <c r="T1" s="3">
+      <c r="U1" s="3">
         <v>2008</v>
       </c>
-      <c r="U1" s="6">
+      <c r="V1" s="6">
         <v>2009</v>
       </c>
-      <c r="V1" s="6">
+      <c r="W1" s="6">
         <v>2010</v>
       </c>
-      <c r="W1" s="7">
+      <c r="X1" s="7">
         <v>2011</v>
       </c>
-      <c r="X1" s="7">
+      <c r="Y1" s="7">
         <v>2012</v>
       </c>
-      <c r="Y1" s="7">
+      <c r="Z1" s="7">
         <v>2013</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="AA1" s="7">
         <v>2014</v>
       </c>
-      <c r="AA1" s="7">
+      <c r="AB1" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
@@ -756,68 +781,69 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="9">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9">
         <v>57</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>58.6</v>
       </c>
-      <c r="J2" s="9">
+      <c r="K2" s="9">
         <v>59.5</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>62.8</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>62.4</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>61.7</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>62</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>59.8</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>59.4</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>60.4</v>
       </c>
-      <c r="R2" s="10">
+      <c r="S2" s="10">
         <v>61.7</v>
       </c>
-      <c r="S2" s="10">
+      <c r="T2" s="10">
         <v>58.9</v>
       </c>
-      <c r="T2" s="11">
+      <c r="U2" s="11">
         <v>59.5</v>
-      </c>
-      <c r="U2" s="12">
-        <v>55</v>
       </c>
       <c r="V2" s="12">
         <v>55</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="12">
+        <v>55</v>
+      </c>
+      <c r="X2" s="13">
         <v>62.7</v>
       </c>
-      <c r="X2" s="13">
+      <c r="Y2" s="13">
         <v>65.7</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Z2" s="13">
         <v>64.400000000000006</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="AA2" s="13">
         <v>45.9</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AB2" s="13">
         <v>29.9</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75">
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -836,52 +862,53 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8">
         <v>400</v>
       </c>
-      <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="10">
+      <c r="O3" s="8"/>
+      <c r="P3" s="10">
         <v>559</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>544</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>639</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>462</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10">
         <v>395</v>
       </c>
-      <c r="T3" s="11">
+      <c r="U3" s="11">
         <v>358</v>
       </c>
-      <c r="U3" s="12">
+      <c r="V3" s="12">
         <v>449</v>
       </c>
-      <c r="V3" s="12">
+      <c r="W3" s="12">
         <v>430</v>
       </c>
-      <c r="W3" s="13">
+      <c r="X3" s="13">
         <v>515</v>
       </c>
-      <c r="X3" s="13">
+      <c r="Y3" s="13">
         <v>446</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Z3" s="13">
         <v>467</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="AA3" s="13">
         <v>463</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AB3" s="13">
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -899,52 +926,53 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8">
         <v>3.7</v>
       </c>
-      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="10">
+      <c r="O4" s="8"/>
+      <c r="P4" s="10">
         <v>2.8</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>3</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>3.1</v>
-      </c>
-      <c r="R4" s="10">
-        <v>3.3</v>
       </c>
       <c r="S4" s="10">
         <v>3.3</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="U4" s="11">
         <v>3.2</v>
       </c>
-      <c r="U4" s="12">
+      <c r="V4" s="12">
         <v>2.9</v>
       </c>
-      <c r="V4" s="12">
+      <c r="W4" s="12">
         <v>2.6</v>
       </c>
-      <c r="W4" s="13">
+      <c r="X4" s="13">
         <v>2.4</v>
       </c>
-      <c r="X4" s="13">
+      <c r="Y4" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Z4" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="AA4" s="13">
         <v>2.1</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AB4" s="13">
         <v>1.9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -965,37 +993,38 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="10">
+      <c r="O5" s="8"/>
+      <c r="P5" s="10">
         <v>745</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>832</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>880</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>962</v>
       </c>
-      <c r="S5" s="10">
+      <c r="T5" s="10">
         <v>950</v>
       </c>
-      <c r="T5" s="11">
+      <c r="U5" s="11">
         <v>867</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <v>745</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="12">
         <v>658</v>
       </c>
-      <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75">
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
@@ -1014,47 +1043,48 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="10">
+      <c r="O6" s="8"/>
+      <c r="P6" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>1.3</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>1.2</v>
       </c>
       <c r="R6" s="10">
         <v>1.2</v>
       </c>
       <c r="S6" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="T6" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T6" s="11">
+      <c r="U6" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U6" s="12">
+      <c r="V6" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V6" s="12">
+      <c r="W6" s="12">
         <v>1</v>
       </c>
-      <c r="W6" s="13">
+      <c r="X6" s="13">
         <v>0.9</v>
       </c>
-      <c r="X6" s="13">
+      <c r="Y6" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Z6" s="13">
         <v>0.9</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>0.7</v>
       </c>
       <c r="AA6" s="13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75">
+      <c r="AB6" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -1072,52 +1102,53 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="10">
+      <c r="O7" s="8"/>
+      <c r="P7" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>19.600000000000001</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>19.899999999999999</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>20.100000000000001</v>
       </c>
-      <c r="S7" s="10">
+      <c r="T7" s="10">
         <v>20.2</v>
       </c>
-      <c r="T7" s="11">
+      <c r="U7" s="11">
         <v>20.6</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>20.8</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>19.899999999999999</v>
       </c>
-      <c r="W7" s="13">
+      <c r="X7" s="13">
         <v>20.7</v>
       </c>
-      <c r="X7" s="13">
+      <c r="Y7" s="13">
         <v>20.5</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Z7" s="13">
         <v>21.3</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="AA7" s="13">
         <v>20.100000000000001</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AB7" s="13">
         <v>19.8</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="39.75" customHeight="1">
+    <row r="8" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1135,52 +1166,53 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
         <v>42.6</v>
       </c>
-      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="10">
+      <c r="O8" s="8"/>
+      <c r="P8" s="10">
         <v>47.6</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>50.5</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>53.2</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>57.1</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>60.9</v>
       </c>
-      <c r="T8" s="11">
+      <c r="U8" s="11">
         <v>56.9</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <v>54.8</v>
       </c>
-      <c r="V8" s="12">
+      <c r="W8" s="12">
         <v>64.3</v>
       </c>
-      <c r="W8" s="13">
+      <c r="X8" s="13">
         <v>66.5</v>
       </c>
-      <c r="X8" s="13">
+      <c r="Y8" s="13">
         <v>67.099999999999994</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Z8" s="13">
         <v>70.400000000000006</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="AA8" s="13">
         <v>68.3</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AB8" s="13">
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="43.5" customHeight="1">
+    <row r="9" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
@@ -1199,47 +1231,48 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="10">
+      <c r="O9" s="8"/>
+      <c r="P9" s="10">
         <v>58.9</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>63.1</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>65</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>68.3</v>
       </c>
-      <c r="S9" s="10">
+      <c r="T9" s="10">
         <v>72.099999999999994</v>
       </c>
-      <c r="T9" s="11">
+      <c r="U9" s="11">
         <v>63.7</v>
       </c>
-      <c r="U9" s="12">
+      <c r="V9" s="12">
         <v>55.7</v>
       </c>
-      <c r="V9" s="12">
+      <c r="W9" s="12">
         <v>61.6</v>
       </c>
-      <c r="W9" s="13">
+      <c r="X9" s="13">
         <v>64.400000000000006</v>
       </c>
-      <c r="X9" s="13">
+      <c r="Y9" s="13">
         <v>64.599999999999994</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Z9" s="13">
         <v>67.599999999999994</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="AA9" s="13">
         <v>60.2</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AB9" s="13">
         <v>55.2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -1258,47 +1291,48 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="10">
+      <c r="O10" s="8"/>
+      <c r="P10" s="10">
         <v>0.8</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>1.2</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>1.4</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>1.5</v>
       </c>
-      <c r="S10" s="10">
+      <c r="T10" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T10" s="11">
+      <c r="U10" s="11">
         <v>2.6</v>
       </c>
-      <c r="U10" s="12">
+      <c r="V10" s="12">
         <v>2</v>
       </c>
-      <c r="V10" s="12">
+      <c r="W10" s="12">
         <v>2.1</v>
       </c>
-      <c r="W10" s="13">
+      <c r="X10" s="13">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="X10" s="13">
-        <v>2.2000000000000002</v>
       </c>
       <c r="Y10" s="13">
         <v>2.2000000000000002</v>
       </c>
       <c r="Z10" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA10" s="13">
         <v>1.5</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AB10" s="13">
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
@@ -1317,47 +1351,48 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="10">
+      <c r="O11" s="8"/>
+      <c r="P11" s="10">
         <v>20.399999999999999</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>23.2</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <v>25.1</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <v>27.8</v>
       </c>
-      <c r="S11" s="10">
+      <c r="T11" s="10">
         <v>30</v>
       </c>
-      <c r="T11" s="11">
+      <c r="U11" s="11">
         <v>26.7</v>
       </c>
-      <c r="U11" s="12">
+      <c r="V11" s="12">
         <v>18</v>
       </c>
-      <c r="V11" s="12">
+      <c r="W11" s="12">
         <v>20.6</v>
       </c>
-      <c r="W11" s="13">
+      <c r="X11" s="13">
         <v>22.8</v>
       </c>
-      <c r="X11" s="13">
+      <c r="Y11" s="13">
         <v>20.6</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Z11" s="13">
         <v>18.7</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="AA11" s="13">
         <v>11.6</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AB11" s="13">
         <v>7.6</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
@@ -1376,47 +1411,48 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="10">
+      <c r="O12" s="8"/>
+      <c r="P12" s="10">
         <v>1319</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>1621</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>4352</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <v>5012</v>
       </c>
-      <c r="S12" s="10">
+      <c r="T12" s="10">
         <v>5572</v>
       </c>
-      <c r="T12" s="11">
+      <c r="U12" s="11">
         <v>5603</v>
       </c>
-      <c r="U12" s="12">
+      <c r="V12" s="12">
         <v>321</v>
       </c>
-      <c r="V12" s="12">
+      <c r="W12" s="12">
         <v>515</v>
       </c>
-      <c r="W12" s="13">
+      <c r="X12" s="13">
         <v>1941</v>
       </c>
-      <c r="X12" s="13">
+      <c r="Y12" s="13">
         <v>391</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Z12" s="13">
         <v>288</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="AA12" s="13">
         <v>218</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AB12" s="13">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
@@ -1435,47 +1471,48 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="10">
+      <c r="O13" s="8"/>
+      <c r="P13" s="10">
         <v>7.2</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>8.1</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>10.7</v>
       </c>
-      <c r="R13" s="10">
+      <c r="S13" s="10">
         <v>12.8</v>
       </c>
-      <c r="S13" s="10">
+      <c r="T13" s="10">
         <v>15.2</v>
       </c>
-      <c r="T13" s="11">
+      <c r="U13" s="11">
         <v>15.6</v>
       </c>
-      <c r="U13" s="12">
+      <c r="V13" s="12">
         <v>7.8</v>
       </c>
-      <c r="V13" s="12">
+      <c r="W13" s="12">
         <v>9</v>
       </c>
-      <c r="W13" s="13">
+      <c r="X13" s="13">
         <v>17.2</v>
       </c>
-      <c r="X13" s="13">
+      <c r="Y13" s="13">
         <v>16.3</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Z13" s="13">
         <v>15.6</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="AA13" s="15">
         <v>12</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AB13" s="13">
         <v>11.6</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -1494,47 +1531,48 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="10">
+      <c r="O14" s="8"/>
+      <c r="P14" s="10">
         <v>34.5</v>
       </c>
-      <c r="P14" s="10">
+      <c r="Q14" s="10">
         <v>39.299999999999997</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <v>37.799999999999997</v>
       </c>
-      <c r="R14" s="10">
+      <c r="S14" s="10">
         <v>45.8</v>
       </c>
-      <c r="S14" s="10">
+      <c r="T14" s="10">
         <v>60.2</v>
       </c>
-      <c r="T14" s="11">
+      <c r="U14" s="11">
         <v>62.6</v>
       </c>
-      <c r="U14" s="12">
+      <c r="V14" s="12">
         <v>40.9</v>
       </c>
-      <c r="V14" s="12">
+      <c r="W14" s="12">
         <v>47.9</v>
       </c>
-      <c r="W14" s="13">
+      <c r="X14" s="13">
         <v>77.7</v>
       </c>
-      <c r="X14" s="13">
+      <c r="Y14" s="13">
         <v>81.5</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Z14" s="13">
         <v>83.3</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="AA14" s="13">
         <v>74.599999999999994</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AB14" s="13">
         <v>62.5</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
@@ -1553,47 +1591,48 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="10">
+      <c r="O15" s="8"/>
+      <c r="P15" s="10">
         <v>1176</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>1468</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <v>1566</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <v>1731</v>
       </c>
-      <c r="S15" s="10">
+      <c r="T15" s="10">
         <v>2172</v>
       </c>
-      <c r="T15" s="11">
+      <c r="U15" s="11">
         <v>1775</v>
       </c>
-      <c r="U15" s="12">
+      <c r="V15" s="12">
         <v>1119</v>
       </c>
-      <c r="V15" s="12">
+      <c r="W15" s="12">
         <v>1391</v>
       </c>
-      <c r="W15" s="13">
+      <c r="X15" s="13">
         <v>1932</v>
       </c>
-      <c r="X15" s="13">
+      <c r="Y15" s="13">
         <v>1736</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Z15" s="13">
         <v>2035</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="AA15" s="13">
         <v>2675</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AB15" s="13">
         <v>2659</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
@@ -1612,43 +1651,44 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="10">
+      <c r="O16" s="8"/>
+      <c r="P16" s="10">
         <v>3870</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>4432</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <v>4854</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <v>6006</v>
       </c>
-      <c r="S16" s="10">
+      <c r="T16" s="10">
         <v>5563</v>
       </c>
-      <c r="T16" s="11">
+      <c r="U16" s="11">
         <v>4441</v>
       </c>
-      <c r="U16" s="12">
+      <c r="V16" s="12">
         <v>5405</v>
       </c>
-      <c r="V16" s="12">
+      <c r="W16" s="12">
         <v>4929</v>
       </c>
-      <c r="W16" s="13">
+      <c r="X16" s="13">
         <v>5949</v>
       </c>
-      <c r="X16" s="13">
+      <c r="Y16" s="13">
         <v>6183</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Z16" s="13">
         <v>5796</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="AA16" s="13">
         <v>2498</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AB16" s="13">
         <v>2137</v>
       </c>
     </row>
@@ -1659,26 +1699,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>

--- a/Data/Extractive industry.xlsx
+++ b/Data/Extractive industry.xlsx
@@ -94,9 +94,6 @@
     <t>Extractive industry (Mining and quarrying)</t>
   </si>
   <si>
-    <t>Coal available</t>
-  </si>
-  <si>
     <t>Non-agglomerate fuel peat (conventional moisture)</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
       </rPr>
       <t xml:space="preserve"> for relevant year. Particular links are not available. Selection must be done by a user to select necessary information in the working area.</t>
     </r>
+  </si>
+  <si>
+    <t>Coal available</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>1</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>2</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>1</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="8" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>1</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="9" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>1</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>3</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>3</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>2</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Extractive industry.xlsx
+++ b/Data/Extractive industry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25260" windowHeight="12800"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="21220" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="extractive industry" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Million cubic meters</t>
-  </si>
-  <si>
-    <t>Billion cubic tones</t>
   </si>
   <si>
     <t>Gas condensate</t>
@@ -142,6 +139,9 @@
       </rPr>
       <t xml:space="preserve"> for relevant year. Particular links are not available. Selection must be done by a user to select necessary information in the working area.</t>
     </r>
+  </si>
+  <si>
+    <t>Billion cubic meters</t>
   </si>
   <si>
     <t>Coal available</t>
@@ -672,16 +672,14 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="15" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="5" max="15" width="6.5" customWidth="1"/>
     <col min="16" max="23" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -845,7 +843,7 @@
     </row>
     <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>2</v>
@@ -910,7 +908,7 @@
     </row>
     <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>1</v>
@@ -974,7 +972,7 @@
     </row>
     <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -1026,7 +1024,7 @@
     </row>
     <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>1</v>
@@ -1086,10 +1084,10 @@
     </row>
     <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8">
         <v>28.1</v>
@@ -1150,7 +1148,7 @@
     </row>
     <row r="8" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>1</v>
@@ -1214,7 +1212,7 @@
     </row>
     <row r="9" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>1</v>
@@ -1274,7 +1272,7 @@
     </row>
     <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>1</v>
@@ -1334,7 +1332,7 @@
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>1</v>
@@ -1394,7 +1392,7 @@
     </row>
     <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>2</v>
@@ -1454,7 +1452,7 @@
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>3</v>
@@ -1514,7 +1512,7 @@
     </row>
     <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>3</v>
@@ -1574,7 +1572,7 @@
     </row>
     <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>2</v>
@@ -1634,7 +1632,7 @@
     </row>
     <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>2</v>
@@ -1710,17 +1708,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Extractive industry.xlsx
+++ b/Data/Extractive industry.xlsx
@@ -106,9 +106,6 @@
     <t>Agglomerated iron concentrates</t>
   </si>
   <si>
-    <t>Natural sands, </t>
-  </si>
-  <si>
     <t>Pebbles, gravel, macadam and crushed stone</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Coal available</t>
+  </si>
+  <si>
+    <t>Natural sands</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8">
         <v>28.1</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>3</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>3</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
